--- a/example/样例底盘材料清单.xlsx
+++ b/example/样例底盘材料清单.xlsx
@@ -1,29 +1,313 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32541\Desktop\MouseWithoutBorders\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D7562-D3B4-4491-9D17-AB9A21F0FF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>链接（仅作参考）</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>底盘电机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘电机驱动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emm28_V5.0 PLC套餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42电机/高40mm带1000mm杜邦线[D款]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPS9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=636447218110&amp;mi_id=0000IImLHGSib0RsxfFMhKdIeCjV6G31DsCPIjUhexxFjXg&amp;spm=tbpc.boughtlist.suborder_itempic.d636447218110.350d2e8dMo1ug9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=738518121036&amp;mi_id=0000s0Bn-gsTwmGm5DzaMbPiPikQOGMFbMC-uNiq0P2Frak&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8dMo1ug9&amp;sku_properties=31309%3A33722</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>板材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=583712885361&amp;mi_id=0000dbXCYAk5mUmN1s8h5uoZg2tWqFW_DIM9O-Yi1Sj8It4&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8dMo1ug9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=649664531631&amp;mi_id=00006cZQgLeH_dPidY0IOAC20WXR6N96OxBcHWbXyT33M5Y&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8dMo1ug9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=635439412574&amp;mi_id=0000pcgZO5Cs63lzx4ViN-dKS48Gz0QAeQfqwzlFHHjqFZI&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8dMo1ug9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容触摸模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口屏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘控制板ZET6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=609293737870&amp;mi_id=0000CEA7Fs1hB2QPLezkCcGkWG2DR5IpTiIApnwzqzVYVQw&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8dMo1ug9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=640509882798&amp;mi_id=0000-eVlMcC-osQO7GqMbzP-snjyAc9XEFuZOIQiNFsAl7M&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8dMo1ug9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V一字型【3000mAh】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不焊排针(带SRAM)
+可以换其他的控制板，便宜点的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=18691413288&amp;mi_id=0000qoK8H3mBIIqyo3LqItMzQv5IyAcWyySVt1-x1F_R0Is&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8dMo1ug9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔20mm 全圆实心红色不带灯2档3脚 6A 250V 铜脚 （2个）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=522572489248&amp;mi_id=0000ZUDWcugJ9fr1azET7seB888RdgvorHWd-pQI2rlp8V4&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8duwh122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A超小模块/固定输出5V/D-SUN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降压模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=580451007567&amp;mi_id=0000fsOLdKqcrmoxIZTKgyVRf20zdp8z0CSJlUrvLLU7Fc4&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8duwh122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42步进电机支架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机支架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线串口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=630394357164&amp;mi_id=00000HGECKooEQzzftJwHP7oP1YITwRcok1K4XTXhcCR7OA&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8duwh122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L24S[价格];价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>75mm（4只麦轮）;5mm;铝套版
+这个轮子其实不是很好用，但是便宜，可以自己挑好一点的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜柱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=601483145867&amp;mi_id=0000c0cj_qSmzsKCQyoKtQSJs7EcwejzY_j_PHscl-v-2mw&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8duwh122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPS9和底盘固定的位置需要添加12mm的打印件垫高（见模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4*40【5个】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=709930896705&amp;mi_id=0000qWcZQxGt49bEEt8idkAULNn7bSoT70YVo6rWUr8rtTw&amp;spm=tbpc.boughtlist.suborder_itempic.d709930896705.350d2e8duwh122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P;300MM;杜邦2.54母-1P;GH1.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GH1.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=962468583902&amp;mi_id=0000O05xnIY-CSE--2XgKIdlCfMk7HJpx_GuFy8cyESjvAg&amp;spm=tbpc.boughtlist.suborder_itempic.d962468583902.350d2e8duwh122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V/2A充放电模块_Type-C_配USB口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=799461424541&amp;mi_id=00007N45Yh0a_gIZNv42wyCDXjDDp8RdkegjAOs5uXs8FKQ&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.350d2e8duwh122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器电池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>804050-2000毫安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=tbpc.boughtlist.suborder_itemtitle.1.4c522e8dFGUjl8&amp;id=577565809725&amp;mi_id=0000HVmQNruhvftaxXYfEKDM8RVfMiqSsmNHU-GsSPbBuzo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT30U-F母头
+XT30U-M公头
+各四个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +330,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +631,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="42.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>49.99</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3*D3</f>
+        <v>199.96</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4*D4</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19.38</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5*D5</f>
+        <v>77.52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E15" si="0">C6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>182.8</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>182.8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>110</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>13.84</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>8.32</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18*D18</f>
+        <v>103</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E19" s="1">
+        <f>C19*D19</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <f>C20*D20</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f>C21*D21</f>
+        <v>11.5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{8CCB5A1F-4C7F-4A86-B90D-A4ADCE10B62E}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{465593DE-81C6-4EE7-BB92-D72294145EB5}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{A4F158DA-66E0-4C5C-80E5-114D88E75C2D}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{34E84615-C7DA-4B5F-AC2C-A02FA80FED85}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{5A7DC31E-7FCF-45DE-93C0-2208CDEE31F9}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{52405439-08F6-4359-9584-DA6BB95608F5}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{33A648A7-1D2E-4857-AFC8-EED2C3D48AFF}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{592FC932-EBF3-4F09-8FAD-48164C2C9EA3}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{B0E60274-84C4-49C3-876C-56A1D12791DE}"/>
+    <hyperlink ref="F4" r:id="rId10" xr:uid="{FCF68FE5-817A-422D-8C75-A36B47EDDB22}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{10DEBA5E-519C-47AD-9829-6E836334062D}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{CC31CC07-C06C-4526-B2C9-374E355452C6}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{AB48D101-DDD2-44C0-AB27-4D68A8F3A540}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{36FCE155-4A4C-4B13-A417-39BD0762F549}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{836967B0-0FD0-4C4A-B36B-CB98C8D790C3}"/>
+    <hyperlink ref="F15" r:id="rId16" xr:uid="{477C6365-B02A-479C-A1ED-64454DD60A0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>